--- a/Research Proposal/Research Proposal.xlsx
+++ b/Research Proposal/Research Proposal.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C358436-4B97-4CDB-A12B-8EB6CB44FCBA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,69 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Problem(s)</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Presprocessing</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Prediction of Customer Churn Using Machine Learning</t>
+  </si>
+  <si>
+    <t>IBM Teleco Customer Churn Dataset</t>
+  </si>
+  <si>
+    <t>Predict Churn</t>
+  </si>
+  <si>
+    <t>Tokenization, Standardization</t>
+  </si>
+  <si>
+    <t>Logistic Regression
+Naïve Bayes
+Random Forest
+KNN
+Decision Trees</t>
+  </si>
+  <si>
+    <t>Churn Prediction Using Machine Learning and Recommendations Plans for Telecoms</t>
+  </si>
+  <si>
+    <t>IBM Watson Dataset
+cell2ell</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +395,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>